--- a/limit_test.xlsx
+++ b/limit_test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\ctppl-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF58AF5-7840-4333-846F-9A00121107AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9045A4-DBFA-44DC-A4EF-50064C30DD2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E0600615-25EC-4CAE-BD06-3BE22CAD5C80}"/>
   </bookViews>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>project_id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>mat_id</t>
   </si>
@@ -51,28 +48,25 @@
     <t>unit</t>
   </si>
   <si>
-    <t>Cement</t>
-  </si>
-  <si>
-    <t>Brick</t>
-  </si>
-  <si>
     <t>Stone</t>
   </si>
   <si>
-    <t>kg</t>
-  </si>
-  <si>
-    <t>ton</t>
-  </si>
-  <si>
-    <t>nos</t>
-  </si>
-  <si>
-    <t>cement</t>
-  </si>
-  <si>
     <t>KG</t>
+  </si>
+  <si>
+    <t>Sand</t>
+  </si>
+  <si>
+    <t>Ton</t>
+  </si>
+  <si>
+    <t>hsn_id</t>
+  </si>
+  <si>
+    <t>00002</t>
+  </si>
+  <si>
+    <t>00003</t>
   </si>
 </sst>
 </file>
@@ -108,8 +102,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,104 +419,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8871037-7699-4341-829D-9D2653C60E06}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="27.42578125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>300</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>100</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="A3" s="1">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3">
-        <v>200</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>300</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="C3" s="1">
+        <v>500</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5">
-        <v>200</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="E2:E3" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>